--- a/text.xlsx
+++ b/text.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>text</t>
   </si>
@@ -161,7 +161,7 @@
     - 顎先は顔の輪郭で最もシャープな部分になるが、シャープすぎても不自然なため、顎先の頂点の近くに頂点を追加してすこし丸みを持たせる</t>
   </si>
   <si>
-    <t>Blenderキャラクターモデリングチュートリアル講座2パート1：目のベース作成
+    <t>Blenderキャラクターモデリングチュートリアル講座2パート1
 1. 目の輪郭を選択
    - NumPad 3 を押して側面から見た状態にします。
    - Left Mouse で目の輪郭線上の頂点をクリックして選択します。
@@ -205,7 +205,7 @@
     - G キーで頂点の位置を調整し、球体らしくなるように形を整えます。</t>
   </si>
   <si>
-    <t>lenderキャラクターモデリングチュートリアル講座2パート2：口と鼻のベース作成
+    <t>lenderキャラクターモデリングチュートリアル講座2パート2
 1. 口のベース作成
    - NumPad 3 を押して側面から見た状態にします。
    - Wheel Up で拡大し、口の部分を作業しやすい大きさにします。
@@ -230,7 +230,7 @@
     - 顎先の位置は GX キーで横方向に、GZ キーで縦方向に調整します。</t>
   </si>
   <si>
-    <t>Blenderキャラクターモデリングチュートリアル講座2パート3：顔全体の面張り
+    <t>Blenderキャラクターモデリングチュートリアル講座2パート3
 1. 目の周りの面張り
    - 目の周りの頂点をalt+左クリックしてループ選択し、Ctrl + F から "ブリッジ" を選択して面を埋めます。
    - 同じ手順で、反対側の目も面張りします。
@@ -260,6 +260,99 @@
     - これにより、メッシュが滑らかになり、よりリアルな表現が可能になります。
 7. 最終調整
    - 必要に応じて、各頂点の位置を G キーで調整し、最終的な形状を整えます。</t>
+  </si>
+  <si>
+    <t>Blenderキャラクターモデリングチュートリアル講座3パート1
+1. 全身参照画像の追加と設定
+    - 新しい参照画像として、キャラクターの全身が描かれた画像を追加します。
+    - 追加した画像は、胴体作成時のガイドとして使用します。
+    - 前回作成した頭部モデルのサイズと位置を、新しい参照画像に合わせて調整します。
+    - 頭部メッシュを選択し、`G`キーで位置、`S`キーでサイズを変更します。
+2. 胴体ベースとなる円の追加
+    - 胴体部分の基礎となる円を、`Shift + A`キー &gt; メッシュ &gt; 円 で追加します。
+    - 円の頂点数は、胴体の基本的な形状に合わせて8に設定します。
+3. ウエストラインの位置決定
+    -  追加した円をサイドビュー(`Numpad 3`)で確認し、参照画像と比較しながら、ウエストラインの位置に移動させます。
+    - 円を選択し、`G`キーで上下に移動させて位置を調整します。
+4. 胴体ベースの拡大縮小
+    - 作成した円を、アクティブな頂点を基準に拡大縮小し、胴体のベースを作成します。
+    - ピボットポイントをアクティブ要素に設定することで、選択した頂点を基準とした拡大縮小が可能になります。
+    - `S`キーで拡大縮小を行い、胴体の横幅と奥行きを調整します。</t>
+  </si>
+  <si>
+    <t>Blenderキャラクターモデリングチュートリアル講座3パート2
+1. 胴体前面のメッシュ作成
+    - 胸の輪郭: 胸の輪郭を表現するため、`Alt`キーを押しながらループ選択で胸部の頂点を選択し、`E`キー &gt; 押し出し で円柱状に押し出します。`S`キーで縮小し、`G`キーで位置を調整します。
+    - 肩と胸の接続: 胸の頂点と肩の頂点をそれぞれ選択し、`J`キーで繋いでメッシュを作成します。
+    - 胸の谷間の調整: 胸の谷間部分をより自然な形状にするため、`Ctrl + R`キーでループカットを1本追加します。`G`キーでループカットの位置を調整し、なめらかな曲線になるようにします。
+    - 鎖骨の調整: 鎖骨を表現するため、鎖骨の位置にループカットを追加し、`G`キーで頂点の位置を調整します。
+    - 胸の奥行き調整: 胸の輪郭をサイドビュー(`Numpad 3`)で確認し、奥行き方向にも調整します。参照画像を参考に、女性の体のライン(S字カーブ)を意識して、胴体の形状を`G`キーと`R`キーで調整します。
+2. ミラーモディファイアによる対称化
+    - 胴体右半身の頂点を選択し、`X`キーで削除します。
+    - 胴体メッシュにミラーモディファイアを追加することで、左半身の編集内容が右半身にも反映されるように設定します。
+    - モディファイアパネルで「ミラー」を選択し、X軸を基準にミラーリングを設定します。
+3. 頭部と胴体メッシュの結合
+    - 頭部メッシュと胴体メッシュを選択し、`Ctrl + J`キーで結合します。これにより、一体のメッシュとして扱えるようになります。
+4. 胴体側面のメッシュ作成
+    - 腕の輪郭: 腕の輪郭を作成するため、胴体側面の頂点を選択し、`E`キー &gt; 押し出し で押し出します。
+    - ブリッジによる面張り: 
+        - ウエストラインから胸の下までの頂点、胸の下からウエストラインまでの頂点をそれぞれ選択します。
+        - ループツール(`Ctrl + L`) &gt; ブリッジ を選択し、面張りを行います。
+    - 面のねじれ修正: ブリッジで作成した面がねじれている場合は、ウエストラインの頂点を選択し、`G`キー &gt; X軸 で左右に移動させてねじれを緩和します。
+    - 側面のループカット: 胴体側面にループカットを追加し、`G`キーで位置を調整します。この際、なめらかな曲線が表現できるよう、参照画像を参考にしながら調整します。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blenderキャラクターモデリングチュートリアル講座3パート3
+1. 背中部分のループカット: 胴体背面をループカットで分割し、頂点数を前面と揃えます。
+    - `Ctrl + R`キーでループカットを2本追加します。
+    - 背中の中央部分に、新たにループカットを追加し、`S`キー &gt; Z軸 で0に設定して、Z軸方向の拡大縮小を0にします。
+    -  `G`キー &gt; Z軸 で位置を調整します。
+2. 肩甲骨の調整: 肩甲骨を表現するため、肩甲骨の位置にループカットを追加し、肩甲骨の凹みを表現します。
+    -  `Ctrl + R`キーでループカットを追加します。
+    - `Numpad 7`キーでトップビューに切り替え、`G`キーでループカットの位置を調整します。
+3. 背中側ラインの調整: ループカットを追加して頂点を増やし、背中側のラインを整えます。
+    - 必要な箇所にループカットを追加し、`G`キーで頂点の位置を調整します。
+4. 胴体メッシュの微調整: 胴体全体の形状を確認し、必要に応じて頂点の位置やスケールを調整します。
+    -  `G`キーで頂点の位置、`S`キーでスケールを調整します。
+ </t>
+  </si>
+  <si>
+    <t>Blenderキャラクターモデリングチュートリアル講座4パート1
+1. 全体像の確認： 前回までに作成した上半身をもとに、下半身を含めたキャラクター全体の形状をイメージします。
+2. 下半身の比率： キャラクターの身長を基準に、股関節、膝、くるぶしの位置を比率で決めていきます。身長を基準にすることで、バランスの取れたモデリングが可能になります。
+     股関節：身長の半分(1:1の比率)の位置
+     膝：股関節からくるぶしまでの長さと、くるぶしから足首までの長さが、だいたい同じになる位置
+     くるぶし：足の長さを参考に位置を決定
+3. 目安の位置に印をつける： 決定した股関節、膝、くるぶしの位置に、Grease Pencilで印をつけておきます。これはモデリングを進める際の目安になります。</t>
+  </si>
+  <si>
+    <t>Blenderキャラクターモデリングチュートリアル講座4パート2
+1. ウエストラインからの押し出し： ウエストラインのループを選択し、E→Zキーで下方向へ押し出して面を伸ばします。
+2. 股関節の形状作成： 押し出した面をSキーで拡大縮小し、リファレンス画像の形状に合うように調整します。
+3. 太もも、膝、ふくらはぎの形状作成： 
+     Ctrl+Rでループカットを追加し、各部位の頂点数を8点に揃えます。
+     頂点選択し、Gキーで移動させ、なめらかな曲線を描くように形状を整えます。
+     股関節付近は、ループツール→ブリッジで面を張っていきます。
+4. 足首の形状作成：
+     股関節と同様に、ループカットを追加し、頂点数を8点に揃えます。
+     頂点を選択し、Gキーで移動させて形状を整えます。
+     足首の断面が円形に近づくように、各頂点のピボットポイントを個々の頂点に設定し、Alt+Shift+Sで球状に変形させます。
+5. 足首の微調整： トポロジーラインを意識しながら、ループツールのブリッジで面を張り、足首の形状を調整します。</t>
+  </si>
+  <si>
+    <t>Blenderキャラクターモデリングチュートリアル講座4パート3
+1. 足首の位置調整： 足首の位置を、キャラクター全体のバランスを見ながら微調整します。
+2. 足首と足の接続： 
+     足首と足の付け根部分のループを選択し、E→Zキーで下方向へ押し出して面を伸ばします。
+     S→Z→0と入力し、Z軸方向の拡大縮小を0に設定して面を平らにします。
+     足首の付け根の位置を調整し、なめらかな曲線を描くように形状を整えます。
+3. トポロジーの調整： 
+     足首の断面が円形に近づくように、各頂点のピボットポイントを個々の頂点に設定し、Alt+Shift+Sで球状に変形させます。
+     トポロジーラインを意識しながら、ループツールのブリッジで面を張り、足首と足の接続部分の形状を調整します。
+     必要に応じて、ループカットを追加して頂点数を調整します。
+4. 足首の断面の調整：
+     足首の断面が歪んでいる場合は、ループツールのツイストの値を調整することで修正できます。
+5. 足の形状の微調整： 足首と足の接続部分の形状を、キャラクター全体のバランスを見ながら微調整します。</t>
   </si>
 </sst>
 </file>
@@ -556,22 +649,34 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="2"/>
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="2"/>
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="2"/>
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="2"/>
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="2"/>
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="2"/>
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2"/>
